--- a/ECCOTCP-General.xlsx
+++ b/ECCOTCP-General.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="25040" windowHeight="15880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="25040" windowHeight="15880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Generalinfo_ECCOTCP" localSheetId="1">Sheet1!$A$2:$F$2249</definedName>
     <definedName name="text_20140806_115929" localSheetId="0">Sheet2!$A$2:$D$2249</definedName>
@@ -55,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13514" uniqueCount="2273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13514" uniqueCount="2272">
   <si>
     <t xml:space="preserve">K006151.000                   </t>
   </si>
@@ -6853,9 +6850,6 @@
   </si>
   <si>
     <t>%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> frontonly</t>
   </si>
   <si>
     <t>Total files:</t>
@@ -7006,9 +7000,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7022,6 +7013,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7094,7 +7088,7 @@
                   <c:v>both</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> frontonly</c:v>
+                  <c:v>frontonly</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>backonly</c:v>
@@ -7159,7 +7153,7 @@
                   <c:v>both</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> frontonly</c:v>
+                  <c:v>frontonly</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>backonly</c:v>
@@ -7418,68 +7412,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ECCOdiachronic"/>
-      <sheetName val="ECCOgeneral"/>
-      <sheetName val="EEBOsummary"/>
-      <sheetName val="EBBOgeneral"/>
-      <sheetName val="together"/>
-      <sheetName val="Sheet12"/>
-      <sheetName val="EEBOmore"/>
-      <sheetName val="ECCOtcp"/>
-      <sheetName val="ECCOmore"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>both</v>
-          </cell>
-          <cell r="G5">
-            <v>5795</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7" t="str">
-            <v>Front only</v>
-          </cell>
-          <cell r="G7">
-            <v>14296</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9" t="str">
-            <v>Back only</v>
-          </cell>
-          <cell r="G9">
-            <v>6028</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10" t="str">
-            <v>None</v>
-          </cell>
-          <cell r="G10">
-            <v>3084</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7814,8 +7746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7824,7 +7756,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7868,11 +7800,11 @@
       <c r="D3">
         <v>1770</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="12" t="s">
         <v>2264</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -7887,11 +7819,11 @@
       <c r="D4">
         <v>1730</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="s">
-        <v>2268</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>2265</v>
       </c>
     </row>
@@ -7908,14 +7840,14 @@
       <c r="D5">
         <v>1750</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>2261</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f>COUNTIF(B:B,"both")</f>
         <v>833</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>G5*100/G10</f>
         <v>37.055160142348754</v>
       </c>
@@ -7933,14 +7865,14 @@
       <c r="D6">
         <v>1770</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>2266</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="5" t="s">
+        <v>2260</v>
+      </c>
+      <c r="G6" s="6">
         <f>COUNTIF(B:B,"frontonly")</f>
         <v>1369</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>G6*100/G10</f>
         <v>60.898576512455513</v>
       </c>
@@ -7958,14 +7890,14 @@
       <c r="D7">
         <v>1720</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>2263</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f>COUNTIF(B:B,"backonly")</f>
         <v>21</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f>G7*100/G10</f>
         <v>0.9341637010676157</v>
       </c>
@@ -7983,14 +7915,14 @@
       <c r="D8">
         <v>1710</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>2262</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f>COUNTIF(B:B,"none")</f>
         <v>25</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f>G8*100/G10</f>
         <v>1.1120996441281139</v>
       </c>
@@ -8008,9 +7940,9 @@
       <c r="D9">
         <v>1780</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -8025,14 +7957,14 @@
       <c r="D10">
         <v>1780</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>2267</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="5" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G10" s="6">
         <f>COUNTA(A:A)-1</f>
         <v>2248</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -39399,7 +39331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -39493,11 +39425,11 @@
       <c r="F4" s="1">
         <v>1730</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="12" t="s">
         <v>2264</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -39518,11 +39450,11 @@
       <c r="F5" s="1">
         <v>1750</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11" t="s">
-        <v>2268</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
+        <v>2267</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>2265</v>
       </c>
     </row>
@@ -39545,14 +39477,14 @@
       <c r="F6" s="1">
         <v>1770</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>2271</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="7" t="s">
+        <v>2270</v>
+      </c>
+      <c r="J6" s="8">
         <f>COUNTIFS(B:B,"=NO",C:C,"=YES")</f>
         <v>15</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f>J6/J10*100</f>
         <v>0.66725978647686834</v>
       </c>
@@ -39576,14 +39508,14 @@
       <c r="F7" s="1">
         <v>1720</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>2270</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I7" s="7" t="s">
+        <v>2269</v>
+      </c>
+      <c r="J7" s="8">
         <f>COUNTIFS(B:B,"YES",C:C,"NO")</f>
         <v>515</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <f>J7/J10*100</f>
         <v>22.909252669039144</v>
       </c>
@@ -39607,14 +39539,14 @@
       <c r="F8" s="1">
         <v>1710</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>2269</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="I8" s="5" t="s">
+        <v>2268</v>
+      </c>
+      <c r="J8" s="6">
         <f>COUNTIFS(B:B,"YES",C:C,"YES")</f>
         <v>1672</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f>J8/J10*100</f>
         <v>74.377224199288264</v>
       </c>
@@ -39638,13 +39570,13 @@
       <c r="F9" s="1">
         <v>1780</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>2272</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="I9" s="5" t="s">
+        <v>2271</v>
+      </c>
+      <c r="J9" s="6">
         <v>46</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f>J9/J10*100</f>
         <v>2.0462633451957295</v>
       </c>
@@ -39668,14 +39600,14 @@
       <c r="F10" s="1">
         <v>1780</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>2267</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="I10" s="5" t="s">
+        <v>2266</v>
+      </c>
+      <c r="J10" s="6">
         <f>COUNTA(D:D)-1</f>
         <v>2248</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f>SUM(K6:K9)</f>
         <v>100</v>
       </c>
